--- a/data/trans_orig/P14B24_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2015-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8679C265-F0BB-4663-91BA-6460594D6C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31E5869-3FC8-4983-8B77-0E88BC43955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD9C4B0B-44B5-4DBC-9EAB-8CCF8D16DED0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75BF7B3E-EE2C-4C1A-9F31-662F9DA05A30}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -78,49 +78,55 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,49 +138,49 @@
     <t>90,11%</t>
   </si>
   <si>
-    <t>49,06%</t>
+    <t>59,76%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>50,94%</t>
+    <t>40,24%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -183,49 +189,49 @@
     <t>69,85%</t>
   </si>
   <si>
-    <t>19,93%</t>
+    <t>8,14%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>80,07%</t>
+    <t>91,86%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
   </si>
   <si>
     <t>43,0%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -234,7 +240,7 @@
     <t>52,8%</t>
   </si>
   <si>
-    <t>13,37%</t>
+    <t>13,75%</t>
   </si>
   <si>
     <t>85,88%</t>
@@ -243,19 +249,19 @@
     <t>77,5%</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>68,77%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>47,2%</t>
@@ -264,25 +270,25 @@
     <t>14,12%</t>
   </si>
   <si>
-    <t>86,63%</t>
+    <t>86,25%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>31,23%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -291,49 +297,49 @@
     <t>83,75%</t>
   </si>
   <si>
-    <t>33,49%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>69,14%</t>
   </si>
   <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>66,51%</t>
+    <t>67,99%</t>
   </si>
   <si>
     <t>30,86%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -348,19 +354,19 @@
     <t>61,63%</t>
   </si>
   <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>53,32%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>76,78%</t>
@@ -372,19 +378,19 @@
     <t>38,37%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>46,68%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -396,31 +402,31 @@
     <t>16,15%</t>
   </si>
   <si>
-    <t>88,31%</t>
+    <t>87,49%</t>
   </si>
   <si>
     <t>48,33%</t>
   </si>
   <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>12,51%</t>
   </si>
   <si>
     <t>83,85%</t>
@@ -429,19 +435,19 @@
     <t>51,67%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
   </si>
   <si>
     <t>50,44%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -450,109 +456,109 @@
     <t>50,72%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>54,99%</t>
   </si>
   <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
   </si>
   <si>
     <t>53,93%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>49,28%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>45,01%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
   </si>
   <si>
     <t>46,07%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -567,19 +573,19 @@
     <t>77,57%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>0%</t>
@@ -591,181 +597,175 @@
     <t>22,43%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
   </si>
   <si>
     <t>78,06%</t>
   </si>
   <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>47,62%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>78,58%</t>
   </si>
   <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>52,38%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
   </si>
   <si>
     <t>71,0%</t>
   </si>
   <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>46,94%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
   <si>
     <t>55,93%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>53,06%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
   </si>
   <si>
     <t>44,07%</t>
   </si>
   <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>64,44%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>79,02%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>35,56%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -774,19 +774,19 @@
     <t>53,57%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -795,235 +795,235 @@
     <t>46,43%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>42,66%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
   </si>
   <si>
     <t>61,55%</t>
   </si>
   <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>46,4%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
   </si>
   <si>
     <t>52,33%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
   </si>
   <si>
     <t>38,45%</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>53,6%</t>
   </si>
   <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
   </si>
   <si>
     <t>47,67%</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
   </si>
   <si>
     <t>75,78%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
   </si>
   <si>
     <t>60,98%</t>
   </si>
   <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>52,95%</t>
   </si>
   <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>39,02%</t>
   </si>
   <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>47,05%</t>
   </si>
   <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
   </si>
   <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
   </si>
   <si>
     <t>34,08%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9045FFB-2FC7-4CF9-934B-1A75218AEFBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0BC138-D6A8-4D91-8E7E-D635C67D332C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1613,10 +1613,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -1625,13 +1625,13 @@
         <v>8634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -1640,13 +1640,13 @@
         <v>12768</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1661,13 @@
         <v>5139</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -1676,13 +1676,13 @@
         <v>28682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -1691,18 +1691,18 @@
         <v>33821</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1714,13 +1714,13 @@
         <v>9454</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -1729,13 +1729,13 @@
         <v>30664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -1744,13 +1744,13 @@
         <v>40117</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,13 +1765,13 @@
         <v>1038</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -1780,13 +1780,13 @@
         <v>4257</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -1795,13 +1795,13 @@
         <v>5295</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1816,13 @@
         <v>10492</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -1831,13 +1831,13 @@
         <v>34921</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -1846,18 +1846,18 @@
         <v>45412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1869,13 +1869,13 @@
         <v>2900</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1884,13 +1884,13 @@
         <v>7569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -1899,13 +1899,13 @@
         <v>10469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,13 +1920,13 @@
         <v>1252</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1935,13 +1935,13 @@
         <v>6644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -1950,13 +1950,13 @@
         <v>7896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1971,13 @@
         <v>4152</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -1986,13 +1986,13 @@
         <v>14213</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -2001,18 +2001,18 @@
         <v>18365</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2024,13 +2024,13 @@
         <v>3908</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2039,13 +2039,13 @@
         <v>10488</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2054,13 +2054,13 @@
         <v>14396</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2075,13 @@
         <v>3494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2090,13 +2090,13 @@
         <v>3044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2105,13 +2105,13 @@
         <v>6538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2126,13 @@
         <v>7402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -2141,13 +2141,13 @@
         <v>13532</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
@@ -2156,18 +2156,18 @@
         <v>20934</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2179,13 +2179,13 @@
         <v>4877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2194,13 +2194,13 @@
         <v>12855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2209,13 +2209,13 @@
         <v>17733</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2230,13 @@
         <v>947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2245,13 +2245,13 @@
         <v>5738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -2260,13 +2260,13 @@
         <v>6684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2281,13 @@
         <v>5824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2296,13 +2296,13 @@
         <v>18593</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -2311,18 +2311,18 @@
         <v>24417</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2334,13 +2334,13 @@
         <v>961</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2349,13 +2349,13 @@
         <v>9227</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2364,13 +2364,13 @@
         <v>10188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2385,13 @@
         <v>3175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2400,13 +2400,13 @@
         <v>5745</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2415,13 +2415,13 @@
         <v>8920</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2436,13 @@
         <v>4136</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -2451,13 +2451,13 @@
         <v>14972</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -2466,18 +2466,18 @@
         <v>19108</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2489,13 +2489,13 @@
         <v>4121</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -2504,13 +2504,13 @@
         <v>23214</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2519,13 +2519,13 @@
         <v>27335</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2540,13 @@
         <v>3003</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -2555,13 +2555,13 @@
         <v>24818</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -2570,13 +2570,13 @@
         <v>27821</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2591,13 @@
         <v>7124</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -2606,13 +2606,13 @@
         <v>48032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -2621,18 +2621,18 @@
         <v>55156</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2644,13 +2644,13 @@
         <v>9894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -2659,13 +2659,13 @@
         <v>32642</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -2674,13 +2674,13 @@
         <v>42536</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2695,13 @@
         <v>9612</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -2710,13 +2710,13 @@
         <v>26719</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -2725,13 +2725,13 @@
         <v>36330</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2746,13 @@
         <v>19506</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>51</v>
@@ -2761,13 +2761,13 @@
         <v>59361</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>70</v>
@@ -2776,13 +2776,13 @@
         <v>78866</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2799,13 @@
         <v>37119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>133</v>
@@ -2814,13 +2814,13 @@
         <v>146707</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>170</v>
@@ -2829,13 +2829,13 @@
         <v>183826</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2850,13 @@
         <v>26656</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -2865,13 +2865,13 @@
         <v>85598</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -2880,13 +2880,13 @@
         <v>112254</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2901,13 @@
         <v>63775</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>214</v>
@@ -2916,13 +2916,13 @@
         <v>232305</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>275</v>
@@ -2931,18 +2931,18 @@
         <v>296080</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6155B290-E5D8-4E94-8A38-3EC5B3AA3DDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567F1548-84F6-4359-9DC2-1588ABCA9D04}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2983,7 +2983,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3090,13 +3090,13 @@
         <v>989</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3105,13 +3105,13 @@
         <v>3806</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3120,13 +3120,13 @@
         <v>4796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,10 +3144,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3156,13 +3156,13 @@
         <v>1100</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3171,13 +3171,13 @@
         <v>1100</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3192,13 @@
         <v>989</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -3207,13 +3207,13 @@
         <v>4906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3222,18 +3222,18 @@
         <v>5896</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3245,13 +3245,13 @@
         <v>14873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -3260,13 +3260,13 @@
         <v>45594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
@@ -3275,13 +3275,13 @@
         <v>60467</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,10 +3296,10 @@
         <v>4180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>200</v>
@@ -3347,13 +3347,13 @@
         <v>19053</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -3362,13 +3362,13 @@
         <v>57897</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -3377,18 +3377,18 @@
         <v>76950</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3502,13 +3502,13 @@
         <v>23379</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>60</v>
@@ -3517,13 +3517,13 @@
         <v>39201</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
@@ -3532,18 +3532,18 @@
         <v>62580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3657,13 +3657,13 @@
         <v>18400</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -3672,13 +3672,13 @@
         <v>32074</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -3687,18 +3687,18 @@
         <v>50474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3710,13 +3710,13 @@
         <v>1348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3764,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>250</v>
@@ -3812,13 +3812,13 @@
         <v>1348</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -3827,13 +3827,13 @@
         <v>15225</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -3842,18 +3842,18 @@
         <v>16573</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3967,13 +3967,13 @@
         <v>24273</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -3982,13 +3982,13 @@
         <v>37740</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>100</v>
@@ -3997,18 +3997,18 @@
         <v>62013</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4122,13 +4122,13 @@
         <v>35960</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>124</v>
@@ -4137,13 +4137,13 @@
         <v>91233</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>157</v>
@@ -4152,18 +4152,18 @@
         <v>127193</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4277,13 +4277,13 @@
         <v>23871</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>80</v>
@@ -4292,13 +4292,13 @@
         <v>62845</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>102</v>
@@ -4307,13 +4307,13 @@
         <v>86716</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4432,13 @@
         <v>147274</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>504</v>
@@ -4447,13 +4447,13 @@
         <v>341120</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>657</v>
@@ -4462,18 +4462,18 @@
         <v>488395</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B24_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2015-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31E5869-3FC8-4983-8B77-0E88BC43955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6341CF61-3365-4F3D-9D74-4AF4F5ABFE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75BF7B3E-EE2C-4C1A-9F31-662F9DA05A30}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A86B8B89-253B-4F21-8313-437728781CCF}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="329">
-  <si>
-    <t>Población cuyos trastornos de ansiedad le limita en 2015 (Tasa respuesta: 4,19%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="331">
+  <si>
+    <t>Población cuyos trastornos de ansiedad le limita en 2016 (Tasa respuesta: 4,19%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -84,19 +84,19 @@
     <t>69,9%</t>
   </si>
   <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -114,19 +114,19 @@
     <t>30,1%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,49 +138,49 @@
     <t>90,11%</t>
   </si>
   <si>
-    <t>59,76%</t>
+    <t>59,02%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>40,24%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -189,49 +189,49 @@
     <t>69,85%</t>
   </si>
   <si>
-    <t>8,14%</t>
+    <t>19,93%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>91,86%</t>
+    <t>80,07%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
   </si>
   <si>
     <t>43,0%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -240,403 +240,409 @@
     <t>52,8%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>46,32%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyos trastornos de ansiedad le limita en 2023 (Tasa respuesta: 7,51%)</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
   </si>
   <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>7,03%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyos trastornos de ansiedad le limita en 2023 (Tasa respuesta: 7,51%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
   </si>
   <si>
     <t>52,38%</t>
@@ -1435,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0BC138-D6A8-4D91-8E7E-D635C67D332C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F748353-2D8C-42AF-B5D0-D24010BC64DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2966,7 +2972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567F1548-84F6-4359-9DC2-1588ABCA9D04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6162D63-6165-42CA-BE26-2BFD2ABCA12C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3251,7 +3257,7 @@
         <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -3260,13 +3266,13 @@
         <v>45594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
@@ -3275,13 +3281,13 @@
         <v>60467</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3302,13 @@
         <v>4180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3311,13 +3317,13 @@
         <v>12303</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -3326,13 +3332,13 @@
         <v>16483</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3406,13 @@
         <v>16599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -3415,13 +3421,13 @@
         <v>18400</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3430,13 +3436,13 @@
         <v>34999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3457,13 @@
         <v>6780</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -3466,13 +3472,13 @@
         <v>20801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -3481,13 +3487,13 @@
         <v>27581</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3561,13 @@
         <v>11856</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -3570,13 +3576,13 @@
         <v>28028</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -3585,13 +3591,13 @@
         <v>39884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3612,13 @@
         <v>6544</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3621,13 +3627,13 @@
         <v>4046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3636,13 +3642,13 @@
         <v>10590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,7 +3719,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>30</v>
@@ -3725,13 +3731,13 @@
         <v>8155</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3740,13 +3746,13 @@
         <v>9503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,7 +3773,7 @@
         <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3776,13 +3782,13 @@
         <v>7070</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3791,13 +3797,13 @@
         <v>7070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3871,13 @@
         <v>14941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -3880,13 +3886,13 @@
         <v>17512</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -3895,13 +3901,13 @@
         <v>32452</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3922,13 @@
         <v>9332</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -3931,13 +3937,13 @@
         <v>20228</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -3946,13 +3952,13 @@
         <v>29561</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4026,13 @@
         <v>27252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -4035,13 +4041,13 @@
         <v>66694</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -4050,13 +4056,13 @@
         <v>93947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4077,13 @@
         <v>8708</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -4086,13 +4092,13 @@
         <v>24539</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -4101,13 +4107,13 @@
         <v>33246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4181,13 @@
         <v>7590</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -4190,13 +4196,13 @@
         <v>38325</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -4205,13 +4211,13 @@
         <v>45915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4232,13 @@
         <v>16281</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>34</v>
@@ -4241,13 +4247,13 @@
         <v>24520</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -4256,13 +4262,13 @@
         <v>40801</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4336,13 @@
         <v>95449</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H28" s="7">
         <v>337</v>
@@ -4345,13 +4351,13 @@
         <v>226513</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M28" s="7">
         <v>434</v>
@@ -4360,13 +4366,13 @@
         <v>321963</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4387,13 @@
         <v>51825</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H29" s="7">
         <v>167</v>
@@ -4396,13 +4402,13 @@
         <v>114607</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M29" s="7">
         <v>223</v>
@@ -4411,13 +4417,13 @@
         <v>166432</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
